--- a/ML/evaluation/time/timingNew.xlsx
+++ b/ML/evaluation/time/timingNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\NT505_Thesis\ML\evaluation\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBA8433-0A65-40D7-AD98-630708F5E145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CCBD1B-99CB-4D1D-844B-A2426DFFECA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E227CD11-3517-4C79-B8CF-BF3EC844A5F4}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>LSTM</t>
   </si>
   <si>
-    <t>FFN</t>
-  </si>
-  <si>
     <t>Logistic Regression</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>FNN</t>
   </si>
 </sst>
 </file>
@@ -316,7 +316,7 @@
                   <c:v>LSTM</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FFN</c:v>
+                  <c:v>FNN</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Roberta</c:v>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>4.4749999999999996</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5.1529999999999996</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>18.523</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>10.025</v>

--- a/ML/evaluation/time/timingNew.xlsx
+++ b/ML/evaluation/time/timingNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\NT505_Thesis\ML\evaluation\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CCBD1B-99CB-4D1D-844B-A2426DFFECA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE44173-A901-4A0B-85CC-47018BEB8E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E227CD11-3517-4C79-B8CF-BF3EC844A5F4}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{E227CD11-3517-4C79-B8CF-BF3EC844A5F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,20 +154,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800">
+              <a:rPr lang="vi-VN" sz="1800">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Time</a:t>
+              <a:t>Thời</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:rPr lang="vi-VN" sz="1800" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Performance</a:t>
+              <a:t> gian thực thi</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800">
               <a:solidFill>
@@ -331,31 +331,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.7569999999999997</c:v>
+                  <c:v>3.347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7830000000000004</c:v>
+                  <c:v>3.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1719999999999997</c:v>
+                  <c:v>3.681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4749999999999996</c:v>
+                  <c:v>3.6669999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1529999999999996</c:v>
+                  <c:v>3.399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4890000000000008</c:v>
+                  <c:v>3.7349999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8580000000000005</c:v>
+                  <c:v>3.7450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.523</c:v>
+                  <c:v>3.758</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.025</c:v>
+                  <c:v>4.0030000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.7569999999999997</v>
+        <v>3.347</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.7830000000000004</v>
+        <v>3.5819999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.1719999999999997</v>
+        <v>3.681</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4.4749999999999996</v>
+        <v>3.6669999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5.1529999999999996</v>
+        <v>3.399</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>8.4890000000000008</v>
+        <v>3.7349999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>8.8580000000000005</v>
+        <v>3.7450000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1610,7 +1610,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>18.523</v>
+        <v>3.758</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>10.025</v>
+        <v>4.0030000000000001</v>
       </c>
     </row>
   </sheetData>
